--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_18_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_18_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587413.7056225303</v>
+        <v>617903.9568313602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1790467.545064538</v>
+        <v>1783776.864811973</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24007487.45890418</v>
+        <v>24018212.71255795</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4652426.58006047</v>
+        <v>4648549.266725563</v>
       </c>
     </row>
     <row r="11">
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>87.70217318086767</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>82.30543274582104</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
-        <v>97.41850398649893</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>37.77581921773398</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>15.48722582050885</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.89539017292432</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>50.94872141056362</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>104.2530745629478</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>69.21723664397632</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>63.5213906103566</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>79.68126565070395</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>25.54596212248728</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.215559435448739</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>14.49405580577258</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>40.19296909841634</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -11060,7 +11062,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
         <v>48.07411698098349</v>
@@ -11297,7 +11299,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L44" t="n">
         <v>48.07411698098349</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1711349573947</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>349.5632077616288</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>252.9208142658397</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>100.3713126771896</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>57.09046064443405</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>12.27395481918626</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>50.44416280369231</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.6747839725672</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>209.0658801893956</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>235.0523137644422</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3023467014476</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7880786073906</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0099176112525</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.701595766634</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>116.7769685840635</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>80.98121337311861</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>10.2253518075286</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.18204362716871</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R6" t="n">
-        <v>154.0787837981626</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>207.928718272017</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0749449585587</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6492223174919</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2301488804216</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5399932967506</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6082484609042</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>131.9810555526804</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>86.97257914960325</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>60.38728625235809</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>56.98380791654179</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N7" t="n">
-        <v>44.65747126715333</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>70.12792420831707</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>89.33725884936734</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.2842285170384</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>220.8631442466561</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6182431833629</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0685539250803</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2193491222004</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,19 +23035,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0568960504157</v>
+        <v>422.0658624194015</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>348.4850853819063</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>248.8622947448584</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>91.4364376056927</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>43.69939903968668</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147888</v>
+        <v>35.30584024960351</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>105.3065341853584</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488763</v>
+        <v>202.4530541246828</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>232.653415804923</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>218.8415161663825</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7796568043511</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>160.9535918377404</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.157607375083</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>114.8376820837567</v>
       </c>
       <c r="J9" t="n">
-        <v>75.2064110293488</v>
+        <v>75.65966299055705</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>1.129974599656691</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>45.99210804692308</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>150.5816449830871</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>206.8824917333164</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>229.8479125644464</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6455166744977</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.1829272440145</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.1201500203304</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>166.1881650678593</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>128.642485858693</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470318</v>
+        <v>81.48628357429664</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>53.36671678142191</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673177</v>
+        <v>49.58160176591487</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235183</v>
+        <v>37.43127303404407</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>63.45336054596437</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>83.62601656972109</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>147.3300603993428</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>218.7398877587479</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>242.7952988470669</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>217.8667887513406</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2167733965781</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
         <v>180.0906730958467</v>
@@ -25810,10 +25812,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
         <v>24.54979951156312</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.8628898365198</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R44" t="n">
         <v>180.0906730958467</v>
@@ -26047,10 +26049,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M46" t="n">
         <v>24.54979951156312</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>384076.6226229552</v>
+        <v>380510.3661691804</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>391889.8005734414</v>
+        <v>391405.0051823314</v>
       </c>
     </row>
     <row r="5">
@@ -26314,10 +26316,10 @@
         <v>148854.4649258701</v>
       </c>
       <c r="C2" t="n">
-        <v>150770.0727654317</v>
+        <v>148854.4649258701</v>
       </c>
       <c r="D2" t="n">
-        <v>155572.7776904299</v>
+        <v>155236.0822627004</v>
       </c>
       <c r="E2" t="n">
         <v>167214.4383703214</v>
@@ -26366,13 +26368,13 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>8770.909527807682</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24336.65507127576</v>
+        <v>30675.49398760891</v>
       </c>
       <c r="E3" t="n">
-        <v>69352.80631588837</v>
+        <v>71144.70374179265</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>33183.28134215029</v>
       </c>
       <c r="C4" t="n">
-        <v>32279.78617028113</v>
+        <v>33183.28134215029</v>
       </c>
       <c r="D4" t="n">
-        <v>28886.65262910497</v>
+        <v>29187.47990269742</v>
       </c>
       <c r="E4" t="n">
         <v>17839.90244751602</v>
@@ -26470,10 +26472,10 @@
         <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
-        <v>41322.95195161772</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41893.81860702013</v>
       </c>
       <c r="E5" t="n">
         <v>10196.69999876384</v>
@@ -26522,13 +26524,13 @@
         <v>-256313.5451669364</v>
       </c>
       <c r="C6" t="n">
-        <v>68396.42511572523</v>
+        <v>74558.20901816776</v>
       </c>
       <c r="D6" t="n">
-        <v>60407.02900561107</v>
+        <v>53479.28976537392</v>
       </c>
       <c r="E6" t="n">
-        <v>69825.02960815314</v>
+        <v>68033.13218224888</v>
       </c>
       <c r="F6" t="n">
         <v>139177.8359240415</v>
@@ -26738,10 +26740,10 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>352.9977959457669</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>379.1843397715654</v>
       </c>
       <c r="E3" t="n">
         <v>467.7385320533874</v>
@@ -26960,13 +26962,13 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>9.631990186500449</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28.41692811102547</v>
+        <v>35.81853401229885</v>
       </c>
       <c r="E3" t="n">
-        <v>86.32380799659495</v>
+        <v>88.55419228182201</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.419086616867404</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5332208149933</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.70933679678063</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>120.4432027483499</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5131392403472</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>223.942511291303</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>249.1791929140187</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>253.2111727641932</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
-        <v>239.1001302177179</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>204.0664293638039</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.24538989724</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>89.14169969679713</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.337436281866</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.212051665337063</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1135269293493923</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7592782780720271</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.333029685590367</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
-        <v>26.14181790730444</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.73514643837515</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>122.606791069201</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
-        <v>164.859961210332</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>192.383798790443</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>180.6516173270757</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>144.9888494328944</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.92120616231701</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>47.14185659819131</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
-        <v>14.10326099839926</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.060424287492073</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04995251829421232</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6365534025251535</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.659538433360004</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>19.14289686866553</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>45.00432555852834</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.95593167519509</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>94.63813040814874</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>99.78263927037472</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>97.41003113369014</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.97393002237354</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.98824061086034</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.3026671878108</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.62175571717644</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>11.09338975127926</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.719819083516564</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03472109468319023</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.524359154860563</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.61134319471575</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>58.76785631776192</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>129.3780778198468</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>193.9042008450945</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>240.5553073306585</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>267.66412945091</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>271.9952148996576</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>256.8373685535129</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>219.2047519178927</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>164.6136396844487</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>95.75452576150994</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>34.73633424138512</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.672882200402118</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.121948732388845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.8156040515841217</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.877018077141387</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>28.08110440761121</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>77.05669682093671</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>131.7021682770729</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>177.0898183055787</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>206.6554651755031</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>194.0529516942274</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>155.7446017450416</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>104.1111417425626</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>50.63899541326681</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>15.14948753709979</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.287456681604419</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05365816128842908</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.6837750389323309</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>6.079381709780183</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>20.56298026171047</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>48.3428952525158</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>79.4422272505017</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>101.6586998790849</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>107.1848454210016</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>104.6362293667994</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>96.64849368472623</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>82.6994828905066</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>57.25683530550637</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>30.74501220508462</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.91633408757525</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.921584257256322</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03729682030539991</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34150,7 +34152,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
         <v>118.1169067903461</v>
@@ -34159,7 +34161,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
         <v>0.1504284726201847</v>
@@ -34241,7 +34243,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,7 +34283,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
         <v>25.36523055791157</v>
@@ -34290,7 +34292,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
         <v>125.3999336590344</v>
@@ -34387,7 +34389,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R44" t="n">
         <v>118.1169067903461</v>
@@ -34396,7 +34398,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U44" t="n">
         <v>0.1504284726201847</v>
@@ -34478,7 +34480,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,7 +34520,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I46" t="n">
         <v>25.36523055791157</v>
@@ -34527,7 +34529,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L46" t="n">
         <v>125.3999336590344</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_18_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>617903.9568313602</v>
+        <v>482466.1198756296</v>
       </c>
     </row>
     <row r="7">
@@ -7990,7 +7990,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>89.2146190330682</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8227,7 +8227,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>89.2146190330682</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8458,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>104.2530745629478</v>
+        <v>104.253074562948</v>
       </c>
       <c r="M8" t="n">
-        <v>69.21723664397632</v>
+        <v>69.21723664397643</v>
       </c>
       <c r="N8" t="n">
-        <v>63.5213906103566</v>
+        <v>63.52139061035678</v>
       </c>
       <c r="O8" t="n">
-        <v>79.68126565070395</v>
+        <v>79.68126565070412</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>25.54596212248728</v>
+        <v>25.54596212248737</v>
       </c>
       <c r="M9" t="n">
-        <v>1.215559435448739</v>
+        <v>1.215559435448853</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>14.49405580577258</v>
+        <v>14.49405580577269</v>
       </c>
       <c r="P9" t="n">
-        <v>40.19296909841634</v>
+        <v>40.19296909841643</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -11299,7 +11299,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
         <v>48.07411698098349</v>
@@ -22576,7 +22576,7 @@
         <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>18.38450875428637</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22588,7 +22588,7 @@
         <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874352</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
         <v>120.8562777625268</v>
@@ -22652,7 +22652,7 @@
         <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636241</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.82666100818672</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
         <v>155.3651088272201</v>
@@ -22737,7 +22737,7 @@
         <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975206</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
         <v>47.31542685419204</v>
@@ -22813,7 +22813,7 @@
         <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>18.38450875428637</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22825,7 +22825,7 @@
         <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>56.01237276874352</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q5" t="n">
         <v>120.8562777625268</v>
@@ -22889,7 +22889,7 @@
         <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>13.57083277636241</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.82666100818672</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R6" t="n">
         <v>155.3651088272201</v>
@@ -22974,7 +22974,7 @@
         <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>59.70650310975206</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N7" t="n">
         <v>47.31542685419204</v>
@@ -23044,10 +23044,10 @@
         <v>248.8622947448584</v>
       </c>
       <c r="J8" t="n">
-        <v>91.4364376056927</v>
+        <v>91.43643760569276</v>
       </c>
       <c r="K8" t="n">
-        <v>43.69939903968668</v>
+        <v>43.6993990396868</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23062,16 +23062,16 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>35.30584024960351</v>
+        <v>35.30584024960362</v>
       </c>
       <c r="Q8" t="n">
-        <v>105.3065341853584</v>
+        <v>105.3065341853585</v>
       </c>
       <c r="R8" t="n">
-        <v>202.4530541246828</v>
+        <v>202.4530541246829</v>
       </c>
       <c r="S8" t="n">
-        <v>232.653415804923</v>
+        <v>232.6534158049231</v>
       </c>
       <c r="T8" t="n">
         <v>218.8415161663825</v>
@@ -23123,10 +23123,10 @@
         <v>114.8376820837567</v>
       </c>
       <c r="J9" t="n">
-        <v>75.65966299055705</v>
+        <v>75.65966299055709</v>
       </c>
       <c r="K9" t="n">
-        <v>1.129974599656691</v>
+        <v>1.129974599656776</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.99210804692308</v>
+        <v>45.99210804692314</v>
       </c>
       <c r="R9" t="n">
         <v>150.5816449830871</v>
@@ -23196,7 +23196,7 @@
         <v>169.1829272440145</v>
       </c>
       <c r="H10" t="n">
-        <v>167.1201500203304</v>
+        <v>167.1201500203305</v>
       </c>
       <c r="I10" t="n">
         <v>166.1881650678593</v>
@@ -23205,22 +23205,22 @@
         <v>128.642485858693</v>
       </c>
       <c r="K10" t="n">
-        <v>81.48628357429664</v>
+        <v>81.48628357429668</v>
       </c>
       <c r="L10" t="n">
-        <v>53.36671678142191</v>
+        <v>53.36671678142197</v>
       </c>
       <c r="M10" t="n">
-        <v>49.58160176591487</v>
+        <v>49.58160176591494</v>
       </c>
       <c r="N10" t="n">
-        <v>37.43127303404407</v>
+        <v>37.43127303404412</v>
       </c>
       <c r="O10" t="n">
-        <v>63.45336054596437</v>
+        <v>63.45336054596444</v>
       </c>
       <c r="P10" t="n">
-        <v>83.62601656972109</v>
+        <v>83.62601656972113</v>
       </c>
       <c r="Q10" t="n">
         <v>147.3300603993428</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
         <v>180.0906730958467</v>
@@ -26049,10 +26049,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
         <v>24.54979951156312</v>
@@ -26316,7 +26316,7 @@
         <v>148854.4649258701</v>
       </c>
       <c r="C2" t="n">
-        <v>148854.4649258701</v>
+        <v>148854.46492587</v>
       </c>
       <c r="D2" t="n">
         <v>155236.0822627004</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>30675.49398760891</v>
+        <v>30675.49398760869</v>
       </c>
       <c r="E3" t="n">
-        <v>71144.70374179265</v>
+        <v>71144.70374179281</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>33183.28134215029</v>
       </c>
       <c r="D4" t="n">
-        <v>29187.47990269742</v>
+        <v>29187.47990269745</v>
       </c>
       <c r="E4" t="n">
         <v>17839.90244751602</v>
@@ -26475,7 +26475,7 @@
         <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>41893.81860702013</v>
+        <v>41893.81860702012</v>
       </c>
       <c r="E5" t="n">
         <v>10196.69999876384</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256313.5451669364</v>
+        <v>-273045.3736377535</v>
       </c>
       <c r="C6" t="n">
-        <v>74558.20901816776</v>
+        <v>57826.38054735058</v>
       </c>
       <c r="D6" t="n">
-        <v>53479.28976537392</v>
+        <v>37051.347834406</v>
       </c>
       <c r="E6" t="n">
-        <v>68033.13218224888</v>
+        <v>52175.58816116736</v>
       </c>
       <c r="F6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029601</v>
       </c>
       <c r="G6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029601</v>
       </c>
       <c r="H6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029602</v>
       </c>
       <c r="I6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029601</v>
       </c>
       <c r="J6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029602</v>
       </c>
       <c r="K6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029601</v>
       </c>
       <c r="L6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029602</v>
       </c>
       <c r="M6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029602</v>
       </c>
       <c r="N6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029602</v>
       </c>
       <c r="O6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029602</v>
       </c>
       <c r="P6" t="n">
-        <v>139177.8359240415</v>
+        <v>123320.2919029601</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
-        <v>379.1843397715654</v>
+        <v>379.1843397715651</v>
       </c>
       <c r="E3" t="n">
         <v>467.7385320533874</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.81853401229885</v>
+        <v>35.8185340122986</v>
       </c>
       <c r="E3" t="n">
-        <v>88.55419228182201</v>
+        <v>88.55419228182221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31056,13 +31056,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562029</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
         <v>232.5759815281271</v>
@@ -31080,7 +31080,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>6.04254799883895</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
         <v>0.1104292038622766</v>
@@ -31123,7 +31123,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
         <v>25.42850542651172</v>
@@ -31132,7 +31132,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003672</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
         <v>160.3615491897405</v>
@@ -31150,10 +31150,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
         <v>13.71843573009899</v>
@@ -31217,7 +31217,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
         <v>94.75207554665143</v>
@@ -31293,13 +31293,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562029</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>246.301986476946</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
         <v>232.5759815281271</v>
@@ -31317,7 +31317,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.04254799883895</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
         <v>0.1104292038622766</v>
@@ -31360,7 +31360,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.132938719640613</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
         <v>25.42850542651172</v>
@@ -31369,7 +31369,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003672</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
         <v>160.3615491897405</v>
@@ -31387,10 +31387,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.276588781299</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>45.85553156913376</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
         <v>13.71843573009899</v>
@@ -31454,7 +31454,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>97.05994407716445</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
         <v>94.75207554665143</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.524359154860563</v>
+        <v>1.524359154860562</v>
       </c>
       <c r="H8" t="n">
-        <v>15.61134319471575</v>
+        <v>15.61134319471574</v>
       </c>
       <c r="I8" t="n">
-        <v>58.76785631776192</v>
+        <v>58.76785631776188</v>
       </c>
       <c r="J8" t="n">
         <v>129.3780778198468</v>
       </c>
       <c r="K8" t="n">
-        <v>193.9042008450945</v>
+        <v>193.9042008450944</v>
       </c>
       <c r="L8" t="n">
-        <v>240.5553073306585</v>
+        <v>240.5553073306584</v>
       </c>
       <c r="M8" t="n">
-        <v>267.66412945091</v>
+        <v>267.6641294509099</v>
       </c>
       <c r="N8" t="n">
-        <v>271.9952148996576</v>
+        <v>271.9952148996575</v>
       </c>
       <c r="O8" t="n">
-        <v>256.8373685535129</v>
+        <v>256.8373685535128</v>
       </c>
       <c r="P8" t="n">
-        <v>219.2047519178927</v>
+        <v>219.2047519178926</v>
       </c>
       <c r="Q8" t="n">
         <v>164.6136396844487</v>
       </c>
       <c r="R8" t="n">
-        <v>95.75452576150994</v>
+        <v>95.75452576150988</v>
       </c>
       <c r="S8" t="n">
-        <v>34.73633424138512</v>
+        <v>34.73633424138509</v>
       </c>
       <c r="T8" t="n">
-        <v>6.672882200402118</v>
+        <v>6.672882200402115</v>
       </c>
       <c r="U8" t="n">
-        <v>0.121948732388845</v>
+        <v>0.1219487323888449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8156040515841217</v>
+        <v>0.8156040515841213</v>
       </c>
       <c r="H9" t="n">
-        <v>7.877018077141387</v>
+        <v>7.877018077141383</v>
       </c>
       <c r="I9" t="n">
-        <v>28.08110440761121</v>
+        <v>28.0811044076112</v>
       </c>
       <c r="J9" t="n">
-        <v>77.05669682093671</v>
+        <v>77.05669682093666</v>
       </c>
       <c r="K9" t="n">
-        <v>131.7021682770729</v>
+        <v>131.7021682770728</v>
       </c>
       <c r="L9" t="n">
-        <v>177.0898183055787</v>
+        <v>177.0898183055786</v>
       </c>
       <c r="M9" t="n">
-        <v>206.6554651755031</v>
+        <v>206.655465175503</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>194.0529516942274</v>
+        <v>194.0529516942273</v>
       </c>
       <c r="P9" t="n">
         <v>155.7446017450416</v>
@@ -31627,16 +31627,16 @@
         <v>104.1111417425626</v>
       </c>
       <c r="R9" t="n">
-        <v>50.63899541326681</v>
+        <v>50.63899541326678</v>
       </c>
       <c r="S9" t="n">
         <v>15.14948753709979</v>
       </c>
       <c r="T9" t="n">
-        <v>3.287456681604419</v>
+        <v>3.287456681604418</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05365816128842908</v>
+        <v>0.05365816128842905</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6837750389323309</v>
+        <v>0.6837750389323305</v>
       </c>
       <c r="H10" t="n">
-        <v>6.079381709780183</v>
+        <v>6.079381709780179</v>
       </c>
       <c r="I10" t="n">
-        <v>20.56298026171047</v>
+        <v>20.56298026171045</v>
       </c>
       <c r="J10" t="n">
-        <v>48.3428952525158</v>
+        <v>48.34289525251577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.4422272505017</v>
+        <v>79.44222725050166</v>
       </c>
       <c r="L10" t="n">
         <v>101.6586998790849</v>
@@ -31694,28 +31694,28 @@
         <v>107.1848454210016</v>
       </c>
       <c r="N10" t="n">
-        <v>104.6362293667994</v>
+        <v>104.6362293667993</v>
       </c>
       <c r="O10" t="n">
-        <v>96.64849368472623</v>
+        <v>96.64849368472616</v>
       </c>
       <c r="P10" t="n">
-        <v>82.6994828905066</v>
+        <v>82.69948289050656</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.25683530550637</v>
+        <v>57.25683530550634</v>
       </c>
       <c r="R10" t="n">
-        <v>30.74501220508462</v>
+        <v>30.7450122050846</v>
       </c>
       <c r="S10" t="n">
         <v>11.91633408757525</v>
       </c>
       <c r="T10" t="n">
-        <v>2.921584257256322</v>
+        <v>2.92158425725632</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03729682030539991</v>
+        <v>0.03729682030539989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
         <v>118.1169067903461</v>
@@ -34398,7 +34398,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
         <v>0.1504284726201847</v>
@@ -34480,7 +34480,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
         <v>25.36523055791157</v>
@@ -34529,7 +34529,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
         <v>125.3999336590344</v>
